--- a/loss_in_devices/conexao_t_df_k1.xlsx
+++ b/loss_in_devices/conexao_t_df_k1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clayton\Videos\IC\Diagramas\Tabelas Excel\diagrama 7.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\AppData\Local\Programs\Python\Python39\Lib\site-packages\DuctNet\loss_in_devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C265B4-00C9-4E77-A34E-21095153D5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -35,8 +36,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +57,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +122,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,22 +402,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -415,51 +425,68 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>9.9999999999999998E+66</v>
       </c>
       <c r="B3" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0.2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0.6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0.8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9.9999999999999998E+66</v>
+      </c>
+      <c r="B10" s="1">
         <v>1.3</v>
       </c>
     </row>
@@ -468,5 +495,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/loss_in_devices/conexao_t_df_k1.xlsx
+++ b/loss_in_devices/conexao_t_df_k1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\AppData\Local\Programs\Python\Python39\Lib\site-packages\DuctNet\loss_in_devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C265B4-00C9-4E77-A34E-21095153D5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8D8144-956B-4027-B34D-36CD8183FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -119,10 +119,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,16 +409,16 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -426,8 +429,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>9.9999999999999998E+66</v>
+      <c r="A3" s="6">
+        <v>-9.9999999999999998E+66</v>
       </c>
       <c r="B3" s="1">
         <v>0.9</v>
@@ -472,7 +475,7 @@
       <c r="B8" s="1">
         <v>1.4</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
